--- a/Datos/Database by set/Set with text box/Xlsx sets/Dragon Con (PDRC).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Dragon Con (PDRC).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,42 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nalathni Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{2}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Flying; banding (Any creatures with banding, and up to one without, can attack in a band. Bands are blocked as a group. If any creatures with banding you control are blocking or being blocked by a creature, you divide that creature’s combat damage, not its controller, among any of the creatures it’s being blocked by or is blocking.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>{R}: Nalathni Dragon gets +1/+0 until end of turn. If this ability has been activated four or more times this turn, sacrifice Nalathni Dragon at the beginning of the next end step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1/1</t>
+          <t>('Nalathni Dragon', ['{2}{R}{R}', 'Creature — Dragon', 'Flying; banding (Any creatures with banding, and up to one without, can attack in a band. Bands are blocked as a group. If any creatures with banding you control are blocking or being blocked by a creature, you divide that creature’s combat damage, not its controller, among any of the creatures it’s being blocked by or is blocking.)', '{R}: Nalathni Dragon gets +1/+0 until end of turn. If this ability has been activated four or more times this turn, sacrifice Nalathni Dragon at the beginning of the next end step.', '1/1'])</t>
         </is>
       </c>
     </row>
